--- a/Code/Results/Cases/Case_7_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052073580522452</v>
+        <v>1.071655090883022</v>
       </c>
       <c r="D2">
-        <v>1.067016891271676</v>
+        <v>1.085182095717908</v>
       </c>
       <c r="E2">
-        <v>1.059969152583162</v>
+        <v>1.077312888815841</v>
       </c>
       <c r="F2">
-        <v>1.072641068704214</v>
+        <v>1.090762123496912</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073957761377305</v>
+        <v>1.088564406310737</v>
       </c>
       <c r="J2">
-        <v>1.072801001605088</v>
+        <v>1.091885179251762</v>
       </c>
       <c r="K2">
-        <v>1.077615333670632</v>
+        <v>1.095569805169629</v>
       </c>
       <c r="L2">
-        <v>1.070651768036625</v>
+        <v>1.087790810216472</v>
       </c>
       <c r="M2">
-        <v>1.083173321921042</v>
+        <v>1.101086835421237</v>
       </c>
       <c r="N2">
-        <v>1.074324502079363</v>
+        <v>1.09343578144728</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060223662978665</v>
+        <v>1.078523962729806</v>
       </c>
       <c r="D3">
-        <v>1.073608648786426</v>
+        <v>1.0908538391229</v>
       </c>
       <c r="E3">
-        <v>1.067096126768017</v>
+        <v>1.083365694412771</v>
       </c>
       <c r="F3">
-        <v>1.079789296774472</v>
+        <v>1.096911238989118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.07724595526048</v>
+        <v>1.091756457235168</v>
       </c>
       <c r="J3">
-        <v>1.079197132925255</v>
+        <v>1.097081031958218</v>
       </c>
       <c r="K3">
-        <v>1.083378971218258</v>
+        <v>1.100442645181477</v>
       </c>
       <c r="L3">
-        <v>1.076936869764201</v>
+        <v>1.093032450218234</v>
       </c>
       <c r="M3">
-        <v>1.0894937485903</v>
+        <v>1.10643793782589</v>
       </c>
       <c r="N3">
-        <v>1.08072971663965</v>
+        <v>1.098639012860551</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065332064232108</v>
+        <v>1.082846903756941</v>
       </c>
       <c r="D4">
-        <v>1.077742107981403</v>
+        <v>1.094425177026778</v>
       </c>
       <c r="E4">
-        <v>1.071564235767335</v>
+        <v>1.087175374890905</v>
       </c>
       <c r="F4">
-        <v>1.084273394552964</v>
+        <v>1.100784413471816</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.079293234284785</v>
+        <v>1.09375406953434</v>
       </c>
       <c r="J4">
-        <v>1.083200349915924</v>
+        <v>1.100345104577129</v>
       </c>
       <c r="K4">
-        <v>1.086984763293212</v>
+        <v>1.103503414570878</v>
       </c>
       <c r="L4">
-        <v>1.080869357825261</v>
+        <v>1.096324309592619</v>
       </c>
       <c r="M4">
-        <v>1.093450949868371</v>
+        <v>1.109801565836391</v>
       </c>
       <c r="N4">
-        <v>1.084738618657622</v>
+        <v>1.101907720836976</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067442413136109</v>
+        <v>1.084636604834695</v>
       </c>
       <c r="D5">
-        <v>1.079450034021401</v>
+        <v>1.095904088811557</v>
       </c>
       <c r="E5">
-        <v>1.073410233434716</v>
+        <v>1.088752615812153</v>
       </c>
       <c r="F5">
-        <v>1.086126622861769</v>
+        <v>1.10238862607635</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.080135645205265</v>
+        <v>1.094578332536685</v>
       </c>
       <c r="J5">
-        <v>1.084852681632779</v>
+        <v>1.101694968550488</v>
       </c>
       <c r="K5">
-        <v>1.088472664561249</v>
+        <v>1.104769100879986</v>
       </c>
       <c r="L5">
-        <v>1.082492192573941</v>
+        <v>1.097685425957514</v>
       </c>
       <c r="M5">
-        <v>1.095084599413981</v>
+        <v>1.111193079985685</v>
       </c>
       <c r="N5">
-        <v>1.086393296875039</v>
+        <v>1.103259501772009</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067794631340568</v>
+        <v>1.084935521961817</v>
       </c>
       <c r="D6">
-        <v>1.079735104987756</v>
+        <v>1.096151118069676</v>
       </c>
       <c r="E6">
-        <v>1.073718338789147</v>
+        <v>1.08901604807937</v>
       </c>
       <c r="F6">
-        <v>1.086435971398398</v>
+        <v>1.102656603289471</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.080276045611539</v>
+        <v>1.094715838782052</v>
       </c>
       <c r="J6">
-        <v>1.085128369733633</v>
+        <v>1.101920336595407</v>
       </c>
       <c r="K6">
-        <v>1.088720894140399</v>
+        <v>1.104980408743274</v>
       </c>
       <c r="L6">
-        <v>1.082762941132279</v>
+        <v>1.097912658485735</v>
       </c>
       <c r="M6">
-        <v>1.095357188251242</v>
+        <v>1.111425429743449</v>
       </c>
       <c r="N6">
-        <v>1.086669376484618</v>
+        <v>1.103485189865401</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065360406142227</v>
+        <v>1.082870924668753</v>
       </c>
       <c r="D7">
-        <v>1.077765044144691</v>
+        <v>1.094445025196881</v>
       </c>
       <c r="E7">
-        <v>1.071589026901532</v>
+        <v>1.08719654416084</v>
       </c>
       <c r="F7">
-        <v>1.08429828033645</v>
+        <v>1.100805942046304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.079304561154224</v>
+        <v>1.093765143508298</v>
       </c>
       <c r="J7">
-        <v>1.083222546484015</v>
+        <v>1.100363227949753</v>
       </c>
       <c r="K7">
-        <v>1.087004752568382</v>
+        <v>1.103520408180121</v>
       </c>
       <c r="L7">
-        <v>1.080891159356842</v>
+        <v>1.096342584991751</v>
       </c>
       <c r="M7">
-        <v>1.093472894260065</v>
+        <v>1.109820246521366</v>
       </c>
       <c r="N7">
-        <v>1.084760846747385</v>
+        <v>1.101925869946868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054863630232594</v>
+        <v>1.074002571113805</v>
       </c>
       <c r="D8">
-        <v>1.069273032527913</v>
+        <v>1.087120029852551</v>
       </c>
       <c r="E8">
-        <v>1.062408702389955</v>
+        <v>1.07938137157275</v>
       </c>
       <c r="F8">
-        <v>1.075087321659213</v>
+        <v>1.092862909726602</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.07508629017114</v>
+        <v>1.089657671190163</v>
       </c>
       <c r="J8">
-        <v>1.074991810425169</v>
+        <v>1.093662124945</v>
       </c>
       <c r="K8">
-        <v>1.07958981795983</v>
+        <v>1.097236358174829</v>
       </c>
       <c r="L8">
-        <v>1.07280480439692</v>
+        <v>1.089583618184824</v>
       </c>
       <c r="M8">
-        <v>1.085337900351355</v>
+        <v>1.102916443134985</v>
       </c>
       <c r="N8">
-        <v>1.076518422099257</v>
+        <v>1.095215250607221</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034983884361327</v>
+        <v>1.057371320748037</v>
       </c>
       <c r="D9">
-        <v>1.053209697621259</v>
+        <v>1.07340081063489</v>
       </c>
       <c r="E9">
-        <v>1.045034088861874</v>
+        <v>1.064730433706977</v>
       </c>
       <c r="F9">
-        <v>1.057677189548925</v>
+        <v>1.077995795471075</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066988018893912</v>
+        <v>1.081865056485477</v>
       </c>
       <c r="J9">
-        <v>1.059359000410841</v>
+        <v>1.081048997708061</v>
       </c>
       <c r="K9">
-        <v>1.065494689015675</v>
+        <v>1.085405560279058</v>
       </c>
       <c r="L9">
-        <v>1.05743645698432</v>
+        <v>1.076853881622637</v>
       </c>
       <c r="M9">
-        <v>1.069899010149487</v>
+        <v>1.089938612083044</v>
       </c>
       <c r="N9">
-        <v>1.0608634117016</v>
+        <v>1.082584211282859</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020613419442952</v>
+        <v>1.045496720819615</v>
       </c>
       <c r="D10">
-        <v>1.041619253375575</v>
+        <v>1.063622170398884</v>
       </c>
       <c r="E10">
-        <v>1.032488958437386</v>
+        <v>1.054277302333699</v>
       </c>
       <c r="F10">
-        <v>1.045122946572684</v>
+        <v>1.067404893074043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.061063410188255</v>
+        <v>1.076242738313097</v>
       </c>
       <c r="J10">
-        <v>1.048032402635246</v>
+        <v>1.072014676078647</v>
       </c>
       <c r="K10">
-        <v>1.055275631076484</v>
+        <v>1.076930457912599</v>
       </c>
       <c r="L10">
-        <v>1.046295387214897</v>
+        <v>1.067731155584426</v>
       </c>
       <c r="M10">
-        <v>1.058722636340161</v>
+        <v>1.080655181038342</v>
       </c>
       <c r="N10">
-        <v>1.049520728857985</v>
+        <v>1.073537059880481</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014075742818014</v>
+        <v>1.040139399634433</v>
       </c>
       <c r="D11">
-        <v>1.036353422439343</v>
+        <v>1.059215639230477</v>
       </c>
       <c r="E11">
-        <v>1.026786805005648</v>
+        <v>1.049564090409758</v>
       </c>
       <c r="F11">
-        <v>1.039420885008397</v>
+        <v>1.062633586041517</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058352346428586</v>
+        <v>1.073692948893672</v>
       </c>
       <c r="J11">
-        <v>1.042874455810106</v>
+        <v>1.067932681274341</v>
       </c>
       <c r="K11">
-        <v>1.050620855091217</v>
+        <v>1.073101034754337</v>
       </c>
       <c r="L11">
-        <v>1.041220644398572</v>
+        <v>1.063608152850168</v>
       </c>
       <c r="M11">
-        <v>1.053635798304536</v>
+        <v>1.076463678972688</v>
       </c>
       <c r="N11">
-        <v>1.044355457156729</v>
+        <v>1.069449268175341</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011594973840656</v>
+        <v>1.038114275754787</v>
       </c>
       <c r="D12">
-        <v>1.034356533498167</v>
+        <v>1.057550815275765</v>
       </c>
       <c r="E12">
-        <v>1.02462401447843</v>
+        <v>1.047782964244462</v>
       </c>
       <c r="F12">
-        <v>1.037258794331601</v>
+        <v>1.060831120803507</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057321353100335</v>
+        <v>1.072727174087763</v>
       </c>
       <c r="J12">
-        <v>1.040916592941107</v>
+        <v>1.066388797321828</v>
       </c>
       <c r="K12">
-        <v>1.048853845058747</v>
+        <v>1.071652678376052</v>
       </c>
       <c r="L12">
-        <v>1.039294188634722</v>
+        <v>1.062048608591198</v>
       </c>
       <c r="M12">
-        <v>1.051705370813996</v>
+        <v>1.074878851914381</v>
       </c>
       <c r="N12">
-        <v>1.042394813897886</v>
+        <v>1.06790319173053</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012129566793272</v>
+        <v>1.038550311939543</v>
       </c>
       <c r="D13">
-        <v>1.034786792051509</v>
+        <v>1.057909231921329</v>
       </c>
       <c r="E13">
-        <v>1.025090039720782</v>
+        <v>1.048166439443855</v>
       </c>
       <c r="F13">
-        <v>1.037724638277176</v>
+        <v>1.061219162346882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057543627041456</v>
+        <v>1.072935204254296</v>
       </c>
       <c r="J13">
-        <v>1.041338529285262</v>
+        <v>1.066721253198983</v>
       </c>
       <c r="K13">
-        <v>1.04923465673421</v>
+        <v>1.071964563313542</v>
       </c>
       <c r="L13">
-        <v>1.039709364093912</v>
+        <v>1.062384443338148</v>
       </c>
       <c r="M13">
-        <v>1.052121373911733</v>
+        <v>1.075220102668444</v>
       </c>
       <c r="N13">
-        <v>1.042817349440046</v>
+        <v>1.068236119733164</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01387178210413</v>
+        <v>1.039972737164818</v>
       </c>
       <c r="D14">
-        <v>1.036189217806202</v>
+        <v>1.059078609746635</v>
       </c>
       <c r="E14">
-        <v>1.026608967504886</v>
+        <v>1.049417497230623</v>
       </c>
       <c r="F14">
-        <v>1.039243091401879</v>
+        <v>1.062485224036499</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058267626687358</v>
+        <v>1.073613506850357</v>
       </c>
       <c r="J14">
-        <v>1.0427134990256</v>
+        <v>1.067805640375129</v>
       </c>
       <c r="K14">
-        <v>1.050475591050879</v>
+        <v>1.072981854387013</v>
       </c>
       <c r="L14">
-        <v>1.041062273055662</v>
+        <v>1.063479826308938</v>
       </c>
       <c r="M14">
-        <v>1.053477087767374</v>
+        <v>1.076333259280026</v>
       </c>
       <c r="N14">
-        <v>1.044194271795126</v>
+        <v>1.06932204686348</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01493811365332</v>
+        <v>1.040844389996515</v>
       </c>
       <c r="D15">
-        <v>1.037047752478735</v>
+        <v>1.059795317559952</v>
       </c>
       <c r="E15">
-        <v>1.027538762623861</v>
+        <v>1.05018420834359</v>
       </c>
       <c r="F15">
-        <v>1.040172684208478</v>
+        <v>1.063261211535367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058710460728659</v>
+        <v>1.074028914604142</v>
       </c>
       <c r="J15">
-        <v>1.043554975417288</v>
+        <v>1.06847003644782</v>
       </c>
       <c r="K15">
-        <v>1.051235020804838</v>
+        <v>1.073605141713841</v>
       </c>
       <c r="L15">
-        <v>1.041890225829666</v>
+        <v>1.064150939954391</v>
       </c>
       <c r="M15">
-        <v>1.05430683911093</v>
+        <v>1.077015345096139</v>
       </c>
       <c r="N15">
-        <v>1.045036943179809</v>
+        <v>1.069987386454802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02104025015422</v>
+        <v>1.045847496195185</v>
       </c>
       <c r="D16">
-        <v>1.041963211084123</v>
+        <v>1.063910808553123</v>
       </c>
       <c r="E16">
-        <v>1.032861358509253</v>
+        <v>1.054585970044642</v>
       </c>
       <c r="F16">
-        <v>1.045495430457023</v>
+        <v>1.067717449706052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.061240093175143</v>
+        <v>1.076409418781738</v>
       </c>
       <c r="J16">
-        <v>1.048369058974276</v>
+        <v>1.072281827714476</v>
       </c>
       <c r="K16">
-        <v>1.055579424230243</v>
+        <v>1.077181078842706</v>
       </c>
       <c r="L16">
-        <v>1.046626587766021</v>
+        <v>1.068000969771431</v>
       </c>
       <c r="M16">
-        <v>1.059054710255427</v>
+        <v>1.080929564003422</v>
       </c>
       <c r="N16">
-        <v>1.049857863287632</v>
+        <v>1.073804590902275</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024780249756697</v>
+        <v>1.048926232591826</v>
       </c>
       <c r="D17">
-        <v>1.04497787741315</v>
+        <v>1.066444768012684</v>
       </c>
       <c r="E17">
-        <v>1.0361250151899</v>
+        <v>1.057295457089005</v>
       </c>
       <c r="F17">
-        <v>1.048760301412672</v>
+        <v>1.070461529939973</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062786475658448</v>
+        <v>1.077870874997906</v>
       </c>
       <c r="J17">
-        <v>1.051318372592609</v>
+        <v>1.074625922453438</v>
       </c>
       <c r="K17">
-        <v>1.058240707137761</v>
+        <v>1.079380116888239</v>
       </c>
       <c r="L17">
-        <v>1.049527962878565</v>
+        <v>1.070368307622168</v>
       </c>
       <c r="M17">
-        <v>1.061964186673399</v>
+        <v>1.08333745538573</v>
       </c>
       <c r="N17">
-        <v>1.052811365269593</v>
+        <v>1.076152014524638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026931695335729</v>
+        <v>1.050701415811326</v>
       </c>
       <c r="D18">
-        <v>1.046712724372178</v>
+        <v>1.067906315544686</v>
       </c>
       <c r="E18">
-        <v>1.038002909784349</v>
+        <v>1.05885799009323</v>
       </c>
       <c r="F18">
-        <v>1.050639289406317</v>
+        <v>1.072044390733675</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06367455613733</v>
+        <v>1.078712292847943</v>
       </c>
       <c r="J18">
-        <v>1.053014493408557</v>
+        <v>1.075976937342807</v>
       </c>
       <c r="K18">
-        <v>1.059771070955054</v>
+        <v>1.080647517982301</v>
       </c>
       <c r="L18">
-        <v>1.051196393469128</v>
+        <v>1.071732617887726</v>
       </c>
       <c r="M18">
-        <v>1.063637647460023</v>
+        <v>1.084725524896353</v>
       </c>
       <c r="N18">
-        <v>1.054509894771648</v>
+        <v>1.077504948010113</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027660329710358</v>
+        <v>1.051303294390846</v>
       </c>
       <c r="D19">
-        <v>1.047300373436798</v>
+        <v>1.068401933688905</v>
       </c>
       <c r="E19">
-        <v>1.038638974731425</v>
+        <v>1.059387810189512</v>
       </c>
       <c r="F19">
-        <v>1.051275790849314</v>
+        <v>1.072581167394363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.063975070156211</v>
+        <v>1.078997363087361</v>
       </c>
       <c r="J19">
-        <v>1.053588837401186</v>
+        <v>1.076434901091891</v>
       </c>
       <c r="K19">
-        <v>1.060289265722338</v>
+        <v>1.081077136285593</v>
       </c>
       <c r="L19">
-        <v>1.051761339912847</v>
+        <v>1.072195071121116</v>
       </c>
       <c r="M19">
-        <v>1.064204359616554</v>
+        <v>1.085196097306037</v>
       </c>
       <c r="N19">
-        <v>1.055085054398624</v>
+        <v>1.07796356212025</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02438212367717</v>
+        <v>1.04859806236648</v>
       </c>
       <c r="D20">
-        <v>1.04465689458625</v>
+        <v>1.066174616309278</v>
       </c>
       <c r="E20">
-        <v>1.035777546588246</v>
+        <v>1.057006618721985</v>
       </c>
       <c r="F20">
-        <v>1.048412662296427</v>
+        <v>1.070168964480664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.06262201522028</v>
+        <v>1.077715224186582</v>
       </c>
       <c r="J20">
-        <v>1.051004464884409</v>
+        <v>1.074376119096417</v>
       </c>
       <c r="K20">
-        <v>1.057957467287218</v>
+        <v>1.079145772798481</v>
       </c>
       <c r="L20">
-        <v>1.049219169965754</v>
+        <v>1.070116037720557</v>
       </c>
       <c r="M20">
-        <v>1.061654492756033</v>
+        <v>1.083080823623968</v>
       </c>
       <c r="N20">
-        <v>1.052497011776441</v>
+        <v>1.075901856418197</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01336023339426</v>
+        <v>1.039554863502126</v>
       </c>
       <c r="D21">
-        <v>1.035777401435962</v>
+        <v>1.058735049759835</v>
       </c>
       <c r="E21">
-        <v>1.026162953361792</v>
+        <v>1.049049952074825</v>
       </c>
       <c r="F21">
-        <v>1.038797198135471</v>
+        <v>1.062113253930703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05805510729703</v>
+        <v>1.073414290622652</v>
       </c>
       <c r="J21">
-        <v>1.042309797480052</v>
+        <v>1.067487096699278</v>
       </c>
       <c r="K21">
-        <v>1.050111246900187</v>
+        <v>1.072683020353368</v>
       </c>
       <c r="L21">
-        <v>1.040665053391287</v>
+        <v>1.063158056617151</v>
       </c>
       <c r="M21">
-        <v>1.05307902738544</v>
+        <v>1.076006251273191</v>
       </c>
       <c r="N21">
-        <v>1.043789996947078</v>
+        <v>1.069003050819072</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006124177128769</v>
+        <v>1.033663893851827</v>
       </c>
       <c r="D22">
-        <v>1.029955419110895</v>
+        <v>1.053894001113939</v>
       </c>
       <c r="E22">
-        <v>1.019856377934861</v>
+        <v>1.043869858458611</v>
       </c>
       <c r="F22">
-        <v>1.032493963277286</v>
+        <v>1.056872279573104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05504367262254</v>
+        <v>1.070601320819517</v>
       </c>
       <c r="J22">
-        <v>1.036597907481199</v>
+        <v>1.062994500895143</v>
       </c>
       <c r="K22">
-        <v>1.044955928209315</v>
+        <v>1.068468422852342</v>
       </c>
       <c r="L22">
-        <v>1.035044478739756</v>
+        <v>1.058619616707878</v>
       </c>
       <c r="M22">
-        <v>1.047448069530092</v>
+        <v>1.071395435320237</v>
       </c>
       <c r="N22">
-        <v>1.038069995409264</v>
+        <v>1.064504075013588</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009991053815199</v>
+        <v>1.03680727556586</v>
       </c>
       <c r="D23">
-        <v>1.033065847184307</v>
+        <v>1.056476616344626</v>
       </c>
       <c r="E23">
-        <v>1.023225966524351</v>
+        <v>1.046633597283773</v>
       </c>
       <c r="F23">
-        <v>1.03586139013527</v>
+        <v>1.059668158421613</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056654149894309</v>
+        <v>1.072103334880809</v>
       </c>
       <c r="J23">
-        <v>1.03965058807801</v>
+        <v>1.065392156238012</v>
       </c>
       <c r="K23">
-        <v>1.047711215551651</v>
+        <v>1.070717706500424</v>
       </c>
       <c r="L23">
-        <v>1.038048445304557</v>
+        <v>1.061041817047307</v>
       </c>
       <c r="M23">
-        <v>1.050457236732647</v>
+        <v>1.073855916351326</v>
       </c>
       <c r="N23">
-        <v>1.04112701116267</v>
+        <v>1.066905135302058</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024562112153876</v>
+        <v>1.048746411792642</v>
       </c>
       <c r="D24">
-        <v>1.044802005425989</v>
+        <v>1.066296736967528</v>
       </c>
       <c r="E24">
-        <v>1.03593463193084</v>
+        <v>1.057137187381509</v>
       </c>
       <c r="F24">
-        <v>1.048569823501483</v>
+        <v>1.070301216789175</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.062696370607634</v>
+        <v>1.077785590058281</v>
       </c>
       <c r="J24">
-        <v>1.051146380651562</v>
+        <v>1.074489044560931</v>
       </c>
       <c r="K24">
-        <v>1.058085518657513</v>
+        <v>1.079251709820468</v>
       </c>
       <c r="L24">
-        <v>1.04935877374319</v>
+        <v>1.070230078518496</v>
       </c>
       <c r="M24">
-        <v>1.061794502719721</v>
+        <v>1.083196835033982</v>
       </c>
       <c r="N24">
-        <v>1.052639129080262</v>
+        <v>1.076014942249824</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04030503658344</v>
+        <v>1.061800722530746</v>
       </c>
       <c r="D25">
-        <v>1.057506322674631</v>
+        <v>1.077052146938171</v>
       </c>
       <c r="E25">
-        <v>1.049682737354044</v>
+        <v>1.0686314359079</v>
       </c>
       <c r="F25">
-        <v>1.06233262837201</v>
+        <v>1.081951582815248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.069167934002485</v>
+        <v>1.08395062649848</v>
       </c>
       <c r="J25">
-        <v>1.06354815224398</v>
+        <v>1.084413350308136</v>
       </c>
       <c r="K25">
-        <v>1.069273009849921</v>
+        <v>1.088561483079889</v>
       </c>
       <c r="L25">
-        <v>1.061555816706148</v>
+        <v>1.080250197025441</v>
       </c>
       <c r="M25">
-        <v>1.074034664442613</v>
+        <v>1.093398231180636</v>
       </c>
       <c r="N25">
-        <v>1.065058512610844</v>
+        <v>1.085953341649523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071655090883022</v>
+        <v>1.034469788267951</v>
       </c>
       <c r="D2">
-        <v>1.085182095717908</v>
+        <v>1.050084702639454</v>
       </c>
       <c r="E2">
-        <v>1.077312888815841</v>
+        <v>1.045597213272172</v>
       </c>
       <c r="F2">
-        <v>1.090762123496912</v>
+        <v>1.055114486634622</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.088564406310737</v>
+        <v>1.06542015895943</v>
       </c>
       <c r="J2">
-        <v>1.091885179251762</v>
+        <v>1.055666220012419</v>
       </c>
       <c r="K2">
-        <v>1.095569805169629</v>
+        <v>1.060887738878123</v>
       </c>
       <c r="L2">
-        <v>1.087790810216472</v>
+        <v>1.05645585600492</v>
       </c>
       <c r="M2">
-        <v>1.101086835421237</v>
+        <v>1.065855895369183</v>
       </c>
       <c r="N2">
-        <v>1.09343578144728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.021875384950281</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.060692638927393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.078523962729806</v>
+        <v>1.038610439407106</v>
       </c>
       <c r="D3">
-        <v>1.0908538391229</v>
+        <v>1.053113666231127</v>
       </c>
       <c r="E3">
-        <v>1.083365694412771</v>
+        <v>1.04884927555179</v>
       </c>
       <c r="F3">
-        <v>1.096911238989118</v>
+        <v>1.058176292168137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.091756457235168</v>
+        <v>1.066829476026384</v>
       </c>
       <c r="J3">
-        <v>1.097081031958218</v>
+        <v>1.058101159015699</v>
       </c>
       <c r="K3">
-        <v>1.100442645181477</v>
+        <v>1.063109225573222</v>
       </c>
       <c r="L3">
-        <v>1.093032450218234</v>
+        <v>1.058893063608427</v>
       </c>
       <c r="M3">
-        <v>1.10643793782589</v>
+        <v>1.06811521598225</v>
       </c>
       <c r="N3">
-        <v>1.098639012860551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.022724252423362</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.062480689345111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.082846903756941</v>
+        <v>1.041239678843259</v>
       </c>
       <c r="D4">
-        <v>1.094425177026778</v>
+        <v>1.055039614931623</v>
       </c>
       <c r="E4">
-        <v>1.087175374890905</v>
+        <v>1.050919495080426</v>
       </c>
       <c r="F4">
-        <v>1.100784413471816</v>
+        <v>1.060126117819241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.09375406953434</v>
+        <v>1.067714972951688</v>
       </c>
       <c r="J4">
-        <v>1.100345104577129</v>
+        <v>1.059644225950624</v>
       </c>
       <c r="K4">
-        <v>1.103503414570878</v>
+        <v>1.064516218949211</v>
       </c>
       <c r="L4">
-        <v>1.096324309592619</v>
+        <v>1.060439883212514</v>
       </c>
       <c r="M4">
-        <v>1.109801565836391</v>
+        <v>1.0695492416729</v>
       </c>
       <c r="N4">
-        <v>1.101907720836976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.023261747218249</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.063615590435708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.084636604834695</v>
+        <v>1.04233340243888</v>
       </c>
       <c r="D5">
-        <v>1.095904088811557</v>
+        <v>1.055841365140266</v>
       </c>
       <c r="E5">
-        <v>1.088752615812153</v>
+        <v>1.051781889982097</v>
       </c>
       <c r="F5">
-        <v>1.10238862607635</v>
+        <v>1.060938526929457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.094578332536685</v>
+        <v>1.068081036687116</v>
       </c>
       <c r="J5">
-        <v>1.101694968550488</v>
+        <v>1.060285349700235</v>
       </c>
       <c r="K5">
-        <v>1.104769100879986</v>
+        <v>1.065100605445837</v>
       </c>
       <c r="L5">
-        <v>1.097685425957514</v>
+        <v>1.061083120983055</v>
       </c>
       <c r="M5">
-        <v>1.111193079985685</v>
+        <v>1.070145597232601</v>
       </c>
       <c r="N5">
-        <v>1.103259501772009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.023484956146556</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.064087551213481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.084935521961817</v>
+        <v>1.042516373184991</v>
       </c>
       <c r="D6">
-        <v>1.096151118069676</v>
+        <v>1.055975524387799</v>
       </c>
       <c r="E6">
-        <v>1.08901604807937</v>
+        <v>1.051926231757035</v>
       </c>
       <c r="F6">
-        <v>1.102656603289471</v>
+        <v>1.061074512057959</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.094715838782052</v>
+        <v>1.068142140468623</v>
       </c>
       <c r="J6">
-        <v>1.101920336595407</v>
+        <v>1.060392558247088</v>
       </c>
       <c r="K6">
-        <v>1.104980408743274</v>
+        <v>1.065198314402834</v>
       </c>
       <c r="L6">
-        <v>1.097912658485735</v>
+        <v>1.061190715641606</v>
       </c>
       <c r="M6">
-        <v>1.111425429743449</v>
+        <v>1.070245351136745</v>
       </c>
       <c r="N6">
-        <v>1.103485189865401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.023522274286998</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.064166497259816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.082870924668753</v>
+        <v>1.041254338365594</v>
       </c>
       <c r="D7">
-        <v>1.094445025196881</v>
+        <v>1.055050358787038</v>
       </c>
       <c r="E7">
-        <v>1.08719654416084</v>
+        <v>1.05093104928093</v>
       </c>
       <c r="F7">
-        <v>1.100805942046304</v>
+        <v>1.060137001669002</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.093765143508298</v>
+        <v>1.067719888506768</v>
       </c>
       <c r="J7">
-        <v>1.100363227949753</v>
+        <v>1.059652822209511</v>
       </c>
       <c r="K7">
-        <v>1.103520408180121</v>
+        <v>1.064524055270533</v>
       </c>
       <c r="L7">
-        <v>1.096342584991751</v>
+        <v>1.060448505624957</v>
       </c>
       <c r="M7">
-        <v>1.109820246521366</v>
+        <v>1.069557235557293</v>
       </c>
       <c r="N7">
-        <v>1.101925869946868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.023264740481999</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.063621916864556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.074002571113805</v>
+        <v>1.035879729974991</v>
       </c>
       <c r="D8">
-        <v>1.087120029852551</v>
+        <v>1.051115528665556</v>
       </c>
       <c r="E8">
-        <v>1.07938137157275</v>
+        <v>1.046703463871222</v>
       </c>
       <c r="F8">
-        <v>1.092862909726602</v>
+        <v>1.056155863255479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.089657671190163</v>
+        <v>1.065901994194985</v>
       </c>
       <c r="J8">
-        <v>1.093662124945</v>
+        <v>1.056495971461299</v>
       </c>
       <c r="K8">
-        <v>1.097236358174829</v>
+        <v>1.061644916661669</v>
       </c>
       <c r="L8">
-        <v>1.089583618184824</v>
+        <v>1.057285894514362</v>
       </c>
       <c r="M8">
-        <v>1.102916443134985</v>
+        <v>1.066625327254962</v>
       </c>
       <c r="N8">
-        <v>1.095215250607221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.022164743371732</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.06130157598582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057371320748037</v>
+        <v>1.026008251962831</v>
       </c>
       <c r="D9">
-        <v>1.07340081063489</v>
+        <v>1.043911179589174</v>
       </c>
       <c r="E9">
-        <v>1.064730433706977</v>
+        <v>1.038981883252301</v>
       </c>
       <c r="F9">
-        <v>1.077995795471075</v>
+        <v>1.048890394949819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.081865056485477</v>
+        <v>1.062490239997123</v>
       </c>
       <c r="J9">
-        <v>1.081048997708061</v>
+        <v>1.050674876010832</v>
       </c>
       <c r="K9">
-        <v>1.085405560279058</v>
+        <v>1.056329851343721</v>
       </c>
       <c r="L9">
-        <v>1.076853881622637</v>
+        <v>1.051472653323628</v>
       </c>
       <c r="M9">
-        <v>1.089938612083044</v>
+        <v>1.061237109593985</v>
       </c>
       <c r="N9">
-        <v>1.082584211282859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.020133074993394</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.057037269765205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045496720819615</v>
+        <v>1.019213490950808</v>
       </c>
       <c r="D10">
-        <v>1.063622170398884</v>
+        <v>1.038990405001696</v>
       </c>
       <c r="E10">
-        <v>1.054277302333699</v>
+        <v>1.033724353666464</v>
       </c>
       <c r="F10">
-        <v>1.067404893074043</v>
+        <v>1.043975224158779</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.076242738313097</v>
+        <v>1.060119477280963</v>
       </c>
       <c r="J10">
-        <v>1.072014676078647</v>
+        <v>1.046685008845277</v>
       </c>
       <c r="K10">
-        <v>1.076930457912599</v>
+        <v>1.052689638789675</v>
       </c>
       <c r="L10">
-        <v>1.067731155584426</v>
+        <v>1.04751027983327</v>
       </c>
       <c r="M10">
-        <v>1.080655181038342</v>
+        <v>1.057593429687441</v>
       </c>
       <c r="N10">
-        <v>1.073537059880481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.018752404575214</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.054204075430339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040139399634433</v>
+        <v>1.01685421802995</v>
       </c>
       <c r="D11">
-        <v>1.059215639230477</v>
+        <v>1.037448809279277</v>
       </c>
       <c r="E11">
-        <v>1.049564090409758</v>
+        <v>1.032117023088343</v>
       </c>
       <c r="F11">
-        <v>1.062633586041517</v>
+        <v>1.04269225101745</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.073692948893672</v>
+        <v>1.059480207135955</v>
       </c>
       <c r="J11">
-        <v>1.067932681274341</v>
+        <v>1.045542270390159</v>
       </c>
       <c r="K11">
-        <v>1.073101034754337</v>
+        <v>1.051697441266207</v>
       </c>
       <c r="L11">
-        <v>1.063608152850168</v>
+        <v>1.046457653316004</v>
       </c>
       <c r="M11">
-        <v>1.076463678972688</v>
+        <v>1.05685159323389</v>
       </c>
       <c r="N11">
-        <v>1.069449268175341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.018474406363348</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.054045516571594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038114275754787</v>
+        <v>1.016217998503196</v>
       </c>
       <c r="D12">
-        <v>1.057550815275765</v>
+        <v>1.037111440501086</v>
       </c>
       <c r="E12">
-        <v>1.047782964244462</v>
+        <v>1.031786228881828</v>
       </c>
       <c r="F12">
-        <v>1.060831120803507</v>
+        <v>1.042543854125626</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.072727174087763</v>
+        <v>1.059398237380489</v>
       </c>
       <c r="J12">
-        <v>1.066388797321828</v>
+        <v>1.045351497146471</v>
       </c>
       <c r="K12">
-        <v>1.071652678376052</v>
+        <v>1.051560584049583</v>
       </c>
       <c r="L12">
-        <v>1.062048608591198</v>
+        <v>1.04632878156047</v>
       </c>
       <c r="M12">
-        <v>1.074878851914381</v>
+        <v>1.056898979269859</v>
       </c>
       <c r="N12">
-        <v>1.06790319173053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01850326452239</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.05440418202207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038550311939543</v>
+        <v>1.016869901763553</v>
       </c>
       <c r="D13">
-        <v>1.057909231921329</v>
+        <v>1.037682591095646</v>
       </c>
       <c r="E13">
-        <v>1.048166439443855</v>
+        <v>1.032419573683601</v>
       </c>
       <c r="F13">
-        <v>1.061219162346882</v>
+        <v>1.043269314871228</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.072935204254296</v>
+        <v>1.059747150409375</v>
       </c>
       <c r="J13">
-        <v>1.066721253198983</v>
+        <v>1.045886991799207</v>
       </c>
       <c r="K13">
-        <v>1.071964563313542</v>
+        <v>1.0520800558592</v>
       </c>
       <c r="L13">
-        <v>1.062384443338148</v>
+        <v>1.046908910808042</v>
       </c>
       <c r="M13">
-        <v>1.075220102668444</v>
+        <v>1.05757056698935</v>
       </c>
       <c r="N13">
-        <v>1.068236119733164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.018771884986386</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.055207941470027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039972737164818</v>
+        <v>1.017906671261591</v>
       </c>
       <c r="D14">
-        <v>1.059078609746635</v>
+        <v>1.038491090670917</v>
       </c>
       <c r="E14">
-        <v>1.049417497230623</v>
+        <v>1.033296348680953</v>
       </c>
       <c r="F14">
-        <v>1.062485224036499</v>
+        <v>1.044170387296359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.073613506850357</v>
+        <v>1.060184401564659</v>
       </c>
       <c r="J14">
-        <v>1.067805640375129</v>
+        <v>1.046587648276466</v>
       </c>
       <c r="K14">
-        <v>1.072981854387013</v>
+        <v>1.052737947634627</v>
       </c>
       <c r="L14">
-        <v>1.063479826308938</v>
+        <v>1.047632706931417</v>
       </c>
       <c r="M14">
-        <v>1.076333259280026</v>
+        <v>1.058320709099872</v>
       </c>
       <c r="N14">
-        <v>1.06932204686348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.019066677553779</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.055972088649673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040844389996515</v>
+        <v>1.018444037904341</v>
       </c>
       <c r="D15">
-        <v>1.059795317559952</v>
+        <v>1.038891743188504</v>
       </c>
       <c r="E15">
-        <v>1.05018420834359</v>
+        <v>1.033726662500105</v>
       </c>
       <c r="F15">
-        <v>1.063261211535367</v>
+        <v>1.044590922338751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.074028914604142</v>
+        <v>1.060388983575583</v>
       </c>
       <c r="J15">
-        <v>1.06847003644782</v>
+        <v>1.046922580948944</v>
       </c>
       <c r="K15">
-        <v>1.073605141713841</v>
+        <v>1.053047619929723</v>
       </c>
       <c r="L15">
-        <v>1.064150939954391</v>
+        <v>1.047970833365838</v>
       </c>
       <c r="M15">
-        <v>1.077015345096139</v>
+        <v>1.058650680872774</v>
       </c>
       <c r="N15">
-        <v>1.069987386454802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.019193377759678</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.056270011149178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045847496195185</v>
+        <v>1.021199197233561</v>
       </c>
       <c r="D16">
-        <v>1.063910808553123</v>
+        <v>1.04087100614049</v>
       </c>
       <c r="E16">
-        <v>1.054585970044642</v>
+        <v>1.035834836917593</v>
       </c>
       <c r="F16">
-        <v>1.067717449706052</v>
+        <v>1.046555481837016</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.076409418781738</v>
+        <v>1.061344162586799</v>
       </c>
       <c r="J16">
-        <v>1.072281827714476</v>
+        <v>1.048522080043105</v>
       </c>
       <c r="K16">
-        <v>1.077181078842706</v>
+        <v>1.054504924212531</v>
       </c>
       <c r="L16">
-        <v>1.068000969771431</v>
+        <v>1.049551013771578</v>
       </c>
       <c r="M16">
-        <v>1.080929564003422</v>
+        <v>1.060097771551534</v>
       </c>
       <c r="N16">
-        <v>1.073804590902275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.019729974125446</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.057375546092359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048926232591826</v>
+        <v>1.022769470165301</v>
       </c>
       <c r="D17">
-        <v>1.066444768012684</v>
+        <v>1.041965363287378</v>
       </c>
       <c r="E17">
-        <v>1.057295457089005</v>
+        <v>1.036992786441167</v>
       </c>
       <c r="F17">
-        <v>1.070461529939973</v>
+        <v>1.047586590052022</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.077870874997906</v>
+        <v>1.061844309485159</v>
       </c>
       <c r="J17">
-        <v>1.074625922453438</v>
+        <v>1.049379921283538</v>
       </c>
       <c r="K17">
-        <v>1.079380116888239</v>
+        <v>1.055275531236095</v>
       </c>
       <c r="L17">
-        <v>1.070368307622168</v>
+        <v>1.050381863987003</v>
       </c>
       <c r="M17">
-        <v>1.08333745538573</v>
+        <v>1.060808707960772</v>
       </c>
       <c r="N17">
-        <v>1.076152014524638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.019986314604586</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05781011135884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050701415811326</v>
+        <v>1.02345501307804</v>
       </c>
       <c r="D18">
-        <v>1.067906315544686</v>
+        <v>1.042381428595532</v>
       </c>
       <c r="E18">
-        <v>1.05885799009323</v>
+        <v>1.037418310196717</v>
       </c>
       <c r="F18">
-        <v>1.072044390733675</v>
+        <v>1.047875744687441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.078712292847943</v>
+        <v>1.061987698428111</v>
       </c>
       <c r="J18">
-        <v>1.075976937342807</v>
+        <v>1.049660292685439</v>
       </c>
       <c r="K18">
-        <v>1.080647517982301</v>
+        <v>1.055506616735437</v>
       </c>
       <c r="L18">
-        <v>1.071732617887726</v>
+        <v>1.050620968198304</v>
       </c>
       <c r="M18">
-        <v>1.084725524896353</v>
+        <v>1.060916263323503</v>
       </c>
       <c r="N18">
-        <v>1.077504948010113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.020015379237112</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.057660915322006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051303294390846</v>
+        <v>1.02333392537643</v>
       </c>
       <c r="D19">
-        <v>1.068401933688905</v>
+        <v>1.042177659054987</v>
       </c>
       <c r="E19">
-        <v>1.059387810189512</v>
+        <v>1.037174232249078</v>
       </c>
       <c r="F19">
-        <v>1.072581167394363</v>
+        <v>1.047486240876414</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.078997363087361</v>
+        <v>1.061806495265769</v>
       </c>
       <c r="J19">
-        <v>1.076434901091891</v>
+        <v>1.049413839659824</v>
       </c>
       <c r="K19">
-        <v>1.081077136285593</v>
+        <v>1.055245150543273</v>
       </c>
       <c r="L19">
-        <v>1.072195071121116</v>
+        <v>1.050319451016176</v>
       </c>
       <c r="M19">
-        <v>1.085196097306037</v>
+        <v>1.060472299775411</v>
       </c>
       <c r="N19">
-        <v>1.07796356212025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01984112390456</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.056989768243226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04859806236648</v>
+        <v>1.020977639535162</v>
       </c>
       <c r="D20">
-        <v>1.066174616309278</v>
+        <v>1.040267485740109</v>
       </c>
       <c r="E20">
-        <v>1.057006618721985</v>
+        <v>1.03508815594172</v>
       </c>
       <c r="F20">
-        <v>1.070168964480664</v>
+        <v>1.045251362249705</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.077715224186582</v>
+        <v>1.060739432243052</v>
       </c>
       <c r="J20">
-        <v>1.074376119096417</v>
+        <v>1.047723189964515</v>
       </c>
       <c r="K20">
-        <v>1.079145772798481</v>
+        <v>1.053637399765239</v>
       </c>
       <c r="L20">
-        <v>1.070116037720557</v>
+        <v>1.04854086033965</v>
       </c>
       <c r="M20">
-        <v>1.083080823623968</v>
+        <v>1.058542601180953</v>
       </c>
       <c r="N20">
-        <v>1.075901856418197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.019112345066101</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.054944877833591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039554863502126</v>
+        <v>1.015747045891607</v>
       </c>
       <c r="D21">
-        <v>1.058735049759835</v>
+        <v>1.036455458778047</v>
       </c>
       <c r="E21">
-        <v>1.049049952074825</v>
+        <v>1.031012364998335</v>
       </c>
       <c r="F21">
-        <v>1.062113253930703</v>
+        <v>1.041399633292745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.073414290622652</v>
+        <v>1.058861640009403</v>
       </c>
       <c r="J21">
-        <v>1.067487096699278</v>
+        <v>1.044600830817505</v>
       </c>
       <c r="K21">
-        <v>1.072683020353368</v>
+        <v>1.050777590525749</v>
       </c>
       <c r="L21">
-        <v>1.063158056617151</v>
+        <v>1.045429091366688</v>
       </c>
       <c r="M21">
-        <v>1.076006251273191</v>
+        <v>1.055636947982463</v>
       </c>
       <c r="N21">
-        <v>1.069003050819072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.018009864889147</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.052605203125793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033663893851827</v>
+        <v>1.012428729017181</v>
       </c>
       <c r="D22">
-        <v>1.053894001113939</v>
+        <v>1.034051966296987</v>
       </c>
       <c r="E22">
-        <v>1.043869858458611</v>
+        <v>1.028447222995462</v>
       </c>
       <c r="F22">
-        <v>1.056872279573104</v>
+        <v>1.038990308271143</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.070601320819517</v>
+        <v>1.057673261015671</v>
       </c>
       <c r="J22">
-        <v>1.062994500895143</v>
+        <v>1.04263294237713</v>
       </c>
       <c r="K22">
-        <v>1.068468422852342</v>
+        <v>1.048977740090772</v>
       </c>
       <c r="L22">
-        <v>1.058619616707878</v>
+        <v>1.043475442227661</v>
       </c>
       <c r="M22">
-        <v>1.071395435320237</v>
+        <v>1.053827007159096</v>
       </c>
       <c r="N22">
-        <v>1.064504075013588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.0173214850147</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.051172778488437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03680727556586</v>
+        <v>1.01419464563173</v>
       </c>
       <c r="D23">
-        <v>1.056476616344626</v>
+        <v>1.035330567037111</v>
       </c>
       <c r="E23">
-        <v>1.046633597283773</v>
+        <v>1.029811593649039</v>
       </c>
       <c r="F23">
-        <v>1.059668158421613</v>
+        <v>1.040271697316256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.072103334880809</v>
+        <v>1.058306512970404</v>
       </c>
       <c r="J23">
-        <v>1.065392156238012</v>
+        <v>1.043680381199981</v>
       </c>
       <c r="K23">
-        <v>1.070717706500424</v>
+        <v>1.04993579024754</v>
       </c>
       <c r="L23">
-        <v>1.061041817047307</v>
+        <v>1.044515049548647</v>
       </c>
       <c r="M23">
-        <v>1.073855916351326</v>
+        <v>1.054790118197587</v>
       </c>
       <c r="N23">
-        <v>1.066905135302058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01768791019299</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.051935004842836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048746411792642</v>
+        <v>1.020999219256864</v>
       </c>
       <c r="D24">
-        <v>1.066296736967528</v>
+        <v>1.040267305693375</v>
       </c>
       <c r="E24">
-        <v>1.057137187381509</v>
+        <v>1.035084433121092</v>
       </c>
       <c r="F24">
-        <v>1.070301216789175</v>
+        <v>1.045226067487412</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.077785590058281</v>
+        <v>1.060728233221832</v>
       </c>
       <c r="J24">
-        <v>1.074489044560931</v>
+        <v>1.047712214340685</v>
       </c>
       <c r="K24">
-        <v>1.079251709820468</v>
+        <v>1.053622351529913</v>
       </c>
       <c r="L24">
-        <v>1.070230078518496</v>
+        <v>1.048522220695126</v>
       </c>
       <c r="M24">
-        <v>1.083196835033982</v>
+        <v>1.05850293194739</v>
       </c>
       <c r="N24">
-        <v>1.076014942249824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.019097793585733</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.054873396600359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.061800722530746</v>
+        <v>1.028610320601606</v>
       </c>
       <c r="D25">
-        <v>1.077052146938171</v>
+        <v>1.045807265878581</v>
       </c>
       <c r="E25">
-        <v>1.0686314359079</v>
+        <v>1.041011946246599</v>
       </c>
       <c r="F25">
-        <v>1.081951582815248</v>
+        <v>1.050799799868214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.08395062649848</v>
+        <v>1.063397837132082</v>
       </c>
       <c r="J25">
-        <v>1.084413350308136</v>
+        <v>1.05221175937801</v>
       </c>
       <c r="K25">
-        <v>1.088561483079889</v>
+        <v>1.057733790812381</v>
       </c>
       <c r="L25">
-        <v>1.080250197025441</v>
+        <v>1.053005297647464</v>
       </c>
       <c r="M25">
-        <v>1.093398231180636</v>
+        <v>1.062657566297868</v>
       </c>
       <c r="N25">
-        <v>1.085953341649523</v>
+        <v>1.020669827821693</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.058161440147691</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034469788267951</v>
+        <v>1.031342570987011</v>
       </c>
       <c r="D2">
-        <v>1.050084702639454</v>
+        <v>1.046062085801285</v>
       </c>
       <c r="E2">
-        <v>1.045597213272172</v>
+        <v>1.0428794260515</v>
       </c>
       <c r="F2">
-        <v>1.055114486634622</v>
+        <v>1.052263146234345</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.06542015895943</v>
+        <v>1.063089264828911</v>
       </c>
       <c r="J2">
-        <v>1.055666220012419</v>
+        <v>1.052624603634791</v>
       </c>
       <c r="K2">
-        <v>1.060887738878123</v>
+        <v>1.056914940494323</v>
       </c>
       <c r="L2">
-        <v>1.05645585600492</v>
+        <v>1.053772036192869</v>
       </c>
       <c r="M2">
-        <v>1.065855895369183</v>
+        <v>1.0630394011062</v>
       </c>
       <c r="N2">
-        <v>1.021875384950281</v>
+        <v>1.020788001070452</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.060692638927393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.058463629564985</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02694391861909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038610439407106</v>
+        <v>1.035219017653771</v>
       </c>
       <c r="D3">
-        <v>1.053113666231127</v>
+        <v>1.048778752818361</v>
       </c>
       <c r="E3">
-        <v>1.04884927555179</v>
+        <v>1.045893765035099</v>
       </c>
       <c r="F3">
-        <v>1.058176292168137</v>
+        <v>1.055093531192965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I3">
-        <v>1.066829476026384</v>
+        <v>1.064308336946554</v>
       </c>
       <c r="J3">
-        <v>1.058101159015699</v>
+        <v>1.054793544355002</v>
       </c>
       <c r="K3">
-        <v>1.063109225573222</v>
+        <v>1.05882334252665</v>
       </c>
       <c r="L3">
-        <v>1.058893063608427</v>
+        <v>1.055971263563961</v>
       </c>
       <c r="M3">
-        <v>1.06811521598225</v>
+        <v>1.065066862143177</v>
       </c>
       <c r="N3">
-        <v>1.022724252423362</v>
+        <v>1.021382767930242</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.062480689345111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.060068188650792</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027362818987612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041239678843259</v>
+        <v>1.037682327216017</v>
       </c>
       <c r="D4">
-        <v>1.055039614931623</v>
+        <v>1.050507681702088</v>
       </c>
       <c r="E4">
-        <v>1.050919495080426</v>
+        <v>1.047814555551162</v>
       </c>
       <c r="F4">
-        <v>1.060126117819241</v>
+        <v>1.056897666160576</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.067714972951688</v>
+        <v>1.065073663093098</v>
       </c>
       <c r="J4">
-        <v>1.059644225950624</v>
+        <v>1.056168878395799</v>
       </c>
       <c r="K4">
-        <v>1.064516218949211</v>
+        <v>1.060032469254961</v>
       </c>
       <c r="L4">
-        <v>1.060439883212514</v>
+        <v>1.057368218366755</v>
       </c>
       <c r="M4">
-        <v>1.0695492416729</v>
+        <v>1.066354661420212</v>
       </c>
       <c r="N4">
-        <v>1.023261747218249</v>
+        <v>1.021759760874428</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.063615590435708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.061087368050899</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027625685730711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04233340243888</v>
+        <v>1.038707439457299</v>
       </c>
       <c r="D5">
-        <v>1.055841365140266</v>
+        <v>1.051227765737762</v>
       </c>
       <c r="E5">
-        <v>1.051781889982097</v>
+        <v>1.048615137851765</v>
       </c>
       <c r="F5">
-        <v>1.060938526929457</v>
+        <v>1.057649755604336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.068081036687116</v>
+        <v>1.065389879714445</v>
       </c>
       <c r="J5">
-        <v>1.060285349700235</v>
+        <v>1.056740495094819</v>
       </c>
       <c r="K5">
-        <v>1.065100605445837</v>
+        <v>1.060534759243487</v>
       </c>
       <c r="L5">
-        <v>1.061083120983055</v>
+        <v>1.05794940110793</v>
       </c>
       <c r="M5">
-        <v>1.070145597232601</v>
+        <v>1.066890416677722</v>
       </c>
       <c r="N5">
-        <v>1.023484956146556</v>
+        <v>1.02191640782864</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.064087551213481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.06151137062937</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027734268772162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042516373184991</v>
+        <v>1.03887895560215</v>
       </c>
       <c r="D6">
-        <v>1.055975524387799</v>
+        <v>1.051348279556459</v>
       </c>
       <c r="E6">
-        <v>1.051926231757035</v>
+        <v>1.048749158839191</v>
       </c>
       <c r="F6">
-        <v>1.061074512057959</v>
+        <v>1.05777566607898</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.068142140468623</v>
+        <v>1.065442652580332</v>
       </c>
       <c r="J6">
-        <v>1.060392558247088</v>
+        <v>1.05683609101952</v>
       </c>
       <c r="K6">
-        <v>1.065198314402834</v>
+        <v>1.060618746335458</v>
       </c>
       <c r="L6">
-        <v>1.061190715641606</v>
+        <v>1.058046630949783</v>
       </c>
       <c r="M6">
-        <v>1.070245351136745</v>
+        <v>1.066980045693992</v>
       </c>
       <c r="N6">
-        <v>1.023522274286998</v>
+        <v>1.021942602753906</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.064166497259816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.061582303991888</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027752388369931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041254338365594</v>
+        <v>1.03770582604368</v>
       </c>
       <c r="D7">
-        <v>1.055050358787038</v>
+        <v>1.050525089649595</v>
       </c>
       <c r="E7">
-        <v>1.05093104928093</v>
+        <v>1.047833882247276</v>
       </c>
       <c r="F7">
-        <v>1.060137001669002</v>
+        <v>1.056914829373299</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.067719888506768</v>
+        <v>1.065083382819117</v>
       </c>
       <c r="J7">
-        <v>1.059652822209511</v>
+        <v>1.056186076574011</v>
       </c>
       <c r="K7">
-        <v>1.064524055270533</v>
+        <v>1.060046881294028</v>
       </c>
       <c r="L7">
-        <v>1.060448505624957</v>
+        <v>1.057384517771955</v>
       </c>
       <c r="M7">
-        <v>1.069557235557293</v>
+        <v>1.066368856504595</v>
       </c>
       <c r="N7">
-        <v>1.023264740481999</v>
+        <v>1.021790963418</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.063621916864556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.061098602199132</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027629931035283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035879729974991</v>
+        <v>1.032692205616115</v>
       </c>
       <c r="D8">
-        <v>1.051115528665556</v>
+        <v>1.047010253044028</v>
       </c>
       <c r="E8">
-        <v>1.046703463871222</v>
+        <v>1.043930994301983</v>
       </c>
       <c r="F8">
-        <v>1.056155863255479</v>
+        <v>1.053247339097906</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.065901994194985</v>
+        <v>1.063523025132574</v>
       </c>
       <c r="J8">
-        <v>1.056495971461299</v>
+        <v>1.05339278611025</v>
       </c>
       <c r="K8">
-        <v>1.061644916661669</v>
+        <v>1.057588977457429</v>
       </c>
       <c r="L8">
-        <v>1.057285894514362</v>
+        <v>1.054547041088998</v>
       </c>
       <c r="M8">
-        <v>1.066625327254962</v>
+        <v>1.063751295476304</v>
       </c>
       <c r="N8">
-        <v>1.022164743371732</v>
+        <v>1.021079402421058</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.06130157598582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.059027032427038</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.027095917501957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026008251962831</v>
+        <v>1.023466858304194</v>
       </c>
       <c r="D9">
-        <v>1.043911179589174</v>
+        <v>1.040562212540203</v>
       </c>
       <c r="E9">
-        <v>1.038981883252301</v>
+        <v>1.036789786000875</v>
       </c>
       <c r="F9">
-        <v>1.048890394949819</v>
+        <v>1.046544884406128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.062490239997123</v>
+        <v>1.060571343140696</v>
       </c>
       <c r="J9">
-        <v>1.050674876010832</v>
+        <v>1.048217312809434</v>
       </c>
       <c r="K9">
-        <v>1.056329851343721</v>
+        <v>1.053029773509917</v>
       </c>
       <c r="L9">
-        <v>1.051472653323628</v>
+        <v>1.04931289858515</v>
       </c>
       <c r="M9">
-        <v>1.061237109593985</v>
+        <v>1.058925387091105</v>
       </c>
       <c r="N9">
-        <v>1.020133074993394</v>
+        <v>1.01966957970424</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.057037269765205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.055207734951824</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026081644619834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019213490950808</v>
+        <v>1.017164700691505</v>
       </c>
       <c r="D10">
-        <v>1.038990405001696</v>
+        <v>1.036197996732943</v>
       </c>
       <c r="E10">
-        <v>1.033724353666464</v>
+        <v>1.031972191951543</v>
       </c>
       <c r="F10">
-        <v>1.043975224158779</v>
+        <v>1.042050990769057</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.060119477280963</v>
+        <v>1.058541017096192</v>
       </c>
       <c r="J10">
-        <v>1.046685008845277</v>
+        <v>1.044713470355031</v>
       </c>
       <c r="K10">
-        <v>1.052689638789675</v>
+        <v>1.049943059374077</v>
       </c>
       <c r="L10">
-        <v>1.04751027983327</v>
+        <v>1.045787215736764</v>
       </c>
       <c r="M10">
-        <v>1.057593429687441</v>
+        <v>1.055700356737229</v>
       </c>
       <c r="N10">
-        <v>1.018752404575214</v>
+        <v>1.01883747451091</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.054204075430339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.052705951516715</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025395768061332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01685421802995</v>
+        <v>1.014979873082779</v>
       </c>
       <c r="D11">
-        <v>1.037448809279277</v>
+        <v>1.034845084001938</v>
       </c>
       <c r="E11">
-        <v>1.032117023088343</v>
+        <v>1.030511928907534</v>
       </c>
       <c r="F11">
-        <v>1.04269225101745</v>
+        <v>1.040912513515335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.059480207135955</v>
+        <v>1.058019230467488</v>
       </c>
       <c r="J11">
-        <v>1.045542270390159</v>
+        <v>1.043742482325701</v>
       </c>
       <c r="K11">
-        <v>1.051697441266207</v>
+        <v>1.049138489251434</v>
       </c>
       <c r="L11">
-        <v>1.046457653316004</v>
+        <v>1.044880495924898</v>
       </c>
       <c r="M11">
-        <v>1.05685159323389</v>
+        <v>1.055102032409404</v>
       </c>
       <c r="N11">
-        <v>1.018474406363348</v>
+        <v>1.018880816608175</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.054045516571594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.052661636454858</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025290897147827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016217998503196</v>
+        <v>1.014369211481719</v>
       </c>
       <c r="D12">
-        <v>1.037111440501086</v>
+        <v>1.034537703386182</v>
       </c>
       <c r="E12">
-        <v>1.031786228881828</v>
+        <v>1.030196459309677</v>
       </c>
       <c r="F12">
-        <v>1.042543854125626</v>
+        <v>1.040784931989844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.059398237380489</v>
+        <v>1.057955841090728</v>
       </c>
       <c r="J12">
-        <v>1.045351497146471</v>
+        <v>1.043577649114109</v>
       </c>
       <c r="K12">
-        <v>1.051560584049583</v>
+        <v>1.049031837081259</v>
       </c>
       <c r="L12">
-        <v>1.04632878156047</v>
+        <v>1.044767140852891</v>
       </c>
       <c r="M12">
-        <v>1.056898979269859</v>
+        <v>1.055170359705763</v>
       </c>
       <c r="N12">
-        <v>1.01850326452239</v>
+        <v>1.018997432675939</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.05440418202207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.053037314825318</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025321389421561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016869901763553</v>
+        <v>1.014920534461796</v>
       </c>
       <c r="D13">
-        <v>1.037682591095646</v>
+        <v>1.035008333265396</v>
       </c>
       <c r="E13">
-        <v>1.032419573683601</v>
+        <v>1.030733957702256</v>
       </c>
       <c r="F13">
-        <v>1.043269314871228</v>
+        <v>1.041428263544222</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.059747150409375</v>
+        <v>1.058241299349911</v>
       </c>
       <c r="J13">
-        <v>1.045886991799207</v>
+        <v>1.044016220413996</v>
       </c>
       <c r="K13">
-        <v>1.0520800558592</v>
+        <v>1.049452329232992</v>
       </c>
       <c r="L13">
-        <v>1.046908910808042</v>
+        <v>1.045252976509777</v>
       </c>
       <c r="M13">
-        <v>1.05757056698935</v>
+        <v>1.055761074205345</v>
       </c>
       <c r="N13">
-        <v>1.018771884986386</v>
+        <v>1.019142541699602</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.055207941470027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.053777475682194</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025457869105828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017906671261591</v>
+        <v>1.0158318413083</v>
       </c>
       <c r="D14">
-        <v>1.038491090670917</v>
+        <v>1.03568933253349</v>
       </c>
       <c r="E14">
-        <v>1.033296348680953</v>
+        <v>1.031495682820226</v>
       </c>
       <c r="F14">
-        <v>1.044170387296359</v>
+        <v>1.042227067449947</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.060184401564659</v>
+        <v>1.058598205268872</v>
       </c>
       <c r="J14">
-        <v>1.046587648276466</v>
+        <v>1.044595248460534</v>
       </c>
       <c r="K14">
-        <v>1.052737947634627</v>
+        <v>1.049984317335925</v>
       </c>
       <c r="L14">
-        <v>1.047632706931417</v>
+        <v>1.045863337526025</v>
       </c>
       <c r="M14">
-        <v>1.058320709099872</v>
+        <v>1.056410268446563</v>
       </c>
       <c r="N14">
-        <v>1.019066677553779</v>
+        <v>1.019258065672461</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.055972088649673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.054462019713151</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025601304024616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018444037904341</v>
+        <v>1.016311611626779</v>
       </c>
       <c r="D15">
-        <v>1.038891743188504</v>
+        <v>1.036030736044196</v>
       </c>
       <c r="E15">
-        <v>1.033726662500105</v>
+        <v>1.031874332167354</v>
       </c>
       <c r="F15">
-        <v>1.044590922338751</v>
+        <v>1.042600629936051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.060388983575583</v>
+        <v>1.058765514420625</v>
       </c>
       <c r="J15">
-        <v>1.046922580948944</v>
+        <v>1.044874124059092</v>
       </c>
       <c r="K15">
-        <v>1.053047619929723</v>
+        <v>1.050235379548357</v>
       </c>
       <c r="L15">
-        <v>1.047970833365838</v>
+        <v>1.046150446125871</v>
       </c>
       <c r="M15">
-        <v>1.058650680872774</v>
+        <v>1.05669380130058</v>
       </c>
       <c r="N15">
-        <v>1.019193377759678</v>
+        <v>1.019297712256299</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.056270011149178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.054723275500387</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025661914657397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021199197233561</v>
+        <v>1.018813640048144</v>
       </c>
       <c r="D16">
-        <v>1.04087100614049</v>
+        <v>1.03774322566159</v>
       </c>
       <c r="E16">
-        <v>1.035834836917593</v>
+        <v>1.033760309872634</v>
       </c>
       <c r="F16">
-        <v>1.046555481837016</v>
+        <v>1.044357272059823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.061344162586799</v>
+        <v>1.059553715751033</v>
       </c>
       <c r="J16">
-        <v>1.048522080043105</v>
+        <v>1.046225737137364</v>
       </c>
       <c r="K16">
-        <v>1.054504924212531</v>
+        <v>1.051428110889744</v>
       </c>
       <c r="L16">
-        <v>1.049551013771578</v>
+        <v>1.04751067115509</v>
       </c>
       <c r="M16">
-        <v>1.060097771551534</v>
+        <v>1.057934843072955</v>
       </c>
       <c r="N16">
-        <v>1.019729974125446</v>
+        <v>1.019444396160136</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.057375546092359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.05566589911808</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02591662711196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022769470165301</v>
+        <v>1.020265940027113</v>
       </c>
       <c r="D17">
-        <v>1.041965363287378</v>
+        <v>1.038707724529607</v>
       </c>
       <c r="E17">
-        <v>1.036992786441167</v>
+        <v>1.034816550749608</v>
       </c>
       <c r="F17">
-        <v>1.047586590052022</v>
+        <v>1.045289629345433</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.061844309485159</v>
+        <v>1.059973460898339</v>
       </c>
       <c r="J17">
-        <v>1.049379921283538</v>
+        <v>1.046967003167558</v>
       </c>
       <c r="K17">
-        <v>1.055275531236095</v>
+        <v>1.052069478448248</v>
       </c>
       <c r="L17">
-        <v>1.050381863987003</v>
+        <v>1.04824046887508</v>
       </c>
       <c r="M17">
-        <v>1.060808707960772</v>
+        <v>1.058547580167903</v>
       </c>
       <c r="N17">
-        <v>1.019986314604586</v>
+        <v>1.019525337153965</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05781011135884</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.056022669912464</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026037665604271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02345501307804</v>
+        <v>1.020927902359623</v>
       </c>
       <c r="D18">
-        <v>1.042381428595532</v>
+        <v>1.039091858178637</v>
       </c>
       <c r="E18">
-        <v>1.037418310196717</v>
+        <v>1.035225362932276</v>
       </c>
       <c r="F18">
-        <v>1.047875744687441</v>
+        <v>1.045557247990794</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.061987698428111</v>
+        <v>1.060097927475936</v>
       </c>
       <c r="J18">
-        <v>1.049660292685439</v>
+        <v>1.047222944272684</v>
       </c>
       <c r="K18">
-        <v>1.055506616735437</v>
+        <v>1.052268287830058</v>
       </c>
       <c r="L18">
-        <v>1.050620968198304</v>
+        <v>1.048462553794843</v>
       </c>
       <c r="M18">
-        <v>1.060916263323503</v>
+        <v>1.058633357014253</v>
       </c>
       <c r="N18">
-        <v>1.020015379237112</v>
+        <v>1.019511146203738</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.057660915322006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.05585589135232</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026044961509183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02333392537643</v>
+        <v>1.020861453632064</v>
       </c>
       <c r="D19">
-        <v>1.042177659054987</v>
+        <v>1.038939429404785</v>
       </c>
       <c r="E19">
-        <v>1.037174232249078</v>
+        <v>1.035035296823222</v>
       </c>
       <c r="F19">
-        <v>1.047486240876414</v>
+        <v>1.045211110393751</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.061806495265769</v>
+        <v>1.059949681764206</v>
       </c>
       <c r="J19">
-        <v>1.049413839659824</v>
+        <v>1.047028701440279</v>
       </c>
       <c r="K19">
-        <v>1.055245150543273</v>
+        <v>1.052057116934295</v>
       </c>
       <c r="L19">
-        <v>1.050319451016176</v>
+        <v>1.04821403690856</v>
       </c>
       <c r="M19">
-        <v>1.060472299775411</v>
+        <v>1.058231940115376</v>
       </c>
       <c r="N19">
-        <v>1.01984112390456</v>
+        <v>1.019391346462682</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.056989768243226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.055217823851734</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025947555941881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020977639535162</v>
+        <v>1.018772515492681</v>
       </c>
       <c r="D20">
-        <v>1.040267485740109</v>
+        <v>1.03730786263644</v>
       </c>
       <c r="E20">
-        <v>1.03508815594172</v>
+        <v>1.033196478516643</v>
       </c>
       <c r="F20">
-        <v>1.045251362249705</v>
+        <v>1.043196977177041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.060739432243052</v>
+        <v>1.059056910654804</v>
       </c>
       <c r="J20">
-        <v>1.047723189964515</v>
+        <v>1.045598487327121</v>
       </c>
       <c r="K20">
-        <v>1.053637399765239</v>
+        <v>1.050724955745439</v>
       </c>
       <c r="L20">
-        <v>1.04854086033965</v>
+        <v>1.046679686568495</v>
       </c>
       <c r="M20">
-        <v>1.058542601180953</v>
+        <v>1.056520529902391</v>
       </c>
       <c r="N20">
-        <v>1.019112345066101</v>
+        <v>1.01897681820535</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.054944877833591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.053344649989946</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025567408440051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015747045891607</v>
+        <v>1.014071451832073</v>
       </c>
       <c r="D21">
-        <v>1.036455458778047</v>
+        <v>1.034045879640201</v>
       </c>
       <c r="E21">
-        <v>1.031012364998335</v>
+        <v>1.029595087739855</v>
       </c>
       <c r="F21">
-        <v>1.041399633292745</v>
+        <v>1.039780418721375</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.058861640009403</v>
+        <v>1.057524449634269</v>
       </c>
       <c r="J21">
-        <v>1.044600830817505</v>
+        <v>1.042992408946731</v>
       </c>
       <c r="K21">
-        <v>1.050777590525749</v>
+        <v>1.048409728063702</v>
       </c>
       <c r="L21">
-        <v>1.045429091366688</v>
+        <v>1.044036657418823</v>
       </c>
       <c r="M21">
-        <v>1.055636947982463</v>
+        <v>1.054045396177042</v>
       </c>
       <c r="N21">
-        <v>1.018009864889147</v>
+        <v>1.018688239233247</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.052605203125793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.051345616223382</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025053195149666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012428729017181</v>
+        <v>1.011086928669059</v>
       </c>
       <c r="D22">
-        <v>1.034051966296987</v>
+        <v>1.031989314991501</v>
       </c>
       <c r="E22">
-        <v>1.028447222995462</v>
+        <v>1.027329083784897</v>
       </c>
       <c r="F22">
-        <v>1.038990308271143</v>
+        <v>1.037645646194103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.057673261015671</v>
+        <v>1.056553130857953</v>
       </c>
       <c r="J22">
-        <v>1.04263294237713</v>
+        <v>1.041348102194129</v>
       </c>
       <c r="K22">
-        <v>1.048977740090772</v>
+        <v>1.046952622204745</v>
       </c>
       <c r="L22">
-        <v>1.043475442227661</v>
+        <v>1.042377915076353</v>
       </c>
       <c r="M22">
-        <v>1.053827007159096</v>
+        <v>1.052506490147179</v>
       </c>
       <c r="N22">
-        <v>1.0173214850147</v>
+        <v>1.018506542005751</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.051172778488437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.050127692260439</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024732170023301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01419464563173</v>
+        <v>1.012659135257308</v>
       </c>
       <c r="D23">
-        <v>1.035330567037111</v>
+        <v>1.033070274139706</v>
       </c>
       <c r="E23">
-        <v>1.029811593649039</v>
+        <v>1.028519665992855</v>
       </c>
       <c r="F23">
-        <v>1.040271697316256</v>
+        <v>1.038769012287368</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.058306512970404</v>
+        <v>1.057061930286</v>
       </c>
       <c r="J23">
-        <v>1.043680381199981</v>
+        <v>1.042208119206083</v>
       </c>
       <c r="K23">
-        <v>1.04993579024754</v>
+        <v>1.047715563810586</v>
       </c>
       <c r="L23">
-        <v>1.044515049548647</v>
+        <v>1.043246314901771</v>
       </c>
       <c r="M23">
-        <v>1.054790118197587</v>
+        <v>1.053313718077138</v>
       </c>
       <c r="N23">
-        <v>1.01768791019299</v>
+        <v>1.018558219743587</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.051935004842836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.05076655038491</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02489814414576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020999219256864</v>
+        <v>1.018797953164911</v>
       </c>
       <c r="D24">
-        <v>1.040267305693375</v>
+        <v>1.037310913478262</v>
       </c>
       <c r="E24">
-        <v>1.035084433121092</v>
+        <v>1.033196886270848</v>
       </c>
       <c r="F24">
-        <v>1.045226067487412</v>
+        <v>1.043174650783353</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.060728233221832</v>
+        <v>1.059047850255814</v>
       </c>
       <c r="J24">
-        <v>1.047712214340685</v>
+        <v>1.045591111629888</v>
       </c>
       <c r="K24">
-        <v>1.053622351529913</v>
+        <v>1.050713026639276</v>
       </c>
       <c r="L24">
-        <v>1.048522220695126</v>
+        <v>1.046665072157963</v>
       </c>
       <c r="M24">
-        <v>1.05850293194739</v>
+        <v>1.056483743149326</v>
       </c>
       <c r="N24">
-        <v>1.019097793585733</v>
+        <v>1.018964107075755</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.054873396600359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.053275373414945</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025558150952728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028610320601606</v>
+        <v>1.025884696060804</v>
       </c>
       <c r="D25">
-        <v>1.045807265878581</v>
+        <v>1.042248055643684</v>
       </c>
       <c r="E25">
-        <v>1.041011946246599</v>
+        <v>1.038654693138617</v>
       </c>
       <c r="F25">
-        <v>1.050799799868214</v>
+        <v>1.048295845404881</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.063397837132082</v>
+        <v>1.061350327423862</v>
       </c>
       <c r="J25">
-        <v>1.05221175937801</v>
+        <v>1.049571270761895</v>
       </c>
       <c r="K25">
-        <v>1.057733790812381</v>
+        <v>1.054224106649046</v>
       </c>
       <c r="L25">
-        <v>1.053005297647464</v>
+        <v>1.050681180514314</v>
       </c>
       <c r="M25">
-        <v>1.062657566297868</v>
+        <v>1.060187993786628</v>
       </c>
       <c r="N25">
-        <v>1.020669827821693</v>
+        <v>1.020007157861691</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.058161440147691</v>
+        <v>1.056206982984199</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026348213949507</v>
       </c>
     </row>
   </sheetData>
